--- a/data/league_data/france/19/france_shooting.xlsx
+++ b/data/league_data/france/19/france_shooting.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2D2CDA9C-3DF2-0849-A1ED-346040F350C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3924697-39DA-BD46-9555-320E297D20A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -409,9 +409,6 @@
     <t>Thomas Foket</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Damien Da Silva</t>
   </si>
   <si>
@@ -1853,12 +1850,15 @@
   </si>
   <si>
     <t>Anthony Walongwa</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2716,14 +2716,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -2751,7 +2751,7 @@
     <col min="25" max="25" width="6.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2828,7 +2828,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="22" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="25" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="26" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="27" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4797,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="33" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="34" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="35" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="37" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="39" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="40" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="41" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="42" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5865,7 +5865,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="44" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="47" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6250,7 +6250,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="48" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="49" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="50" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6481,7 +6481,7 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="51" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6558,7 +6558,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="52" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6635,7 +6635,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="53" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6702,7 +6702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6779,7 +6779,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6856,7 +6856,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="58" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7085,12 +7085,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>129</v>
+        <v>610</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>69</v>
@@ -7162,12 +7162,12 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="60" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>30</v>
@@ -7239,12 +7239,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="61" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>69</v>
@@ -7316,12 +7316,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="62" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>30</v>
@@ -7393,12 +7393,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="63" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>85</v>
@@ -7470,12 +7470,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="64" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>30</v>
@@ -7547,12 +7547,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="65" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>30</v>
@@ -7624,12 +7624,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="66" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>30</v>
@@ -7701,15 +7701,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="67" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>82</v>
@@ -7778,15 +7778,15 @@
         <v>-4.8</v>
       </c>
     </row>
-    <row r="68" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>139</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>140</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>27</v>
@@ -7855,12 +7855,12 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="69" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>30</v>
@@ -7932,12 +7932,12 @@
         <v>-2.5</v>
       </c>
     </row>
-    <row r="70" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>30</v>
@@ -8009,12 +8009,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="71" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>38</v>
@@ -8086,12 +8086,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="72" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>50</v>
@@ -8163,15 +8163,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="73" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>145</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>146</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>27</v>
@@ -8240,12 +8240,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>30</v>
@@ -8317,15 +8317,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="75" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>54</v>
@@ -8394,12 +8394,12 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>30</v>
@@ -8408,7 +8408,7 @@
         <v>31</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F76" s="3">
         <v>33</v>
@@ -8461,12 +8461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>78</v>
@@ -8475,7 +8475,7 @@
         <v>54</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F77" s="3">
         <v>24</v>
@@ -8538,12 +8538,12 @@
         <v>-3.2</v>
       </c>
     </row>
-    <row r="78" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>30</v>
@@ -8615,12 +8615,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>30</v>
@@ -8682,12 +8682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>69</v>
@@ -8696,7 +8696,7 @@
         <v>90</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F80" s="3">
         <v>24</v>
@@ -8759,12 +8759,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="81" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>30</v>
@@ -8836,12 +8836,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="82" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>85</v>
@@ -8913,12 +8913,12 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="83" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>30</v>
@@ -8990,12 +8990,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="84" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>66</v>
@@ -9067,12 +9067,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="85" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>30</v>
@@ -9144,12 +9144,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="86" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>30</v>
@@ -9221,15 +9221,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>164</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>54</v>
@@ -9298,12 +9298,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="88" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>53</v>
@@ -9375,12 +9375,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="89" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>30</v>
@@ -9452,12 +9452,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="90" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>30</v>
@@ -9529,12 +9529,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="91" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>30</v>
@@ -9543,7 +9543,7 @@
         <v>54</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F91" s="3">
         <v>25</v>
@@ -9606,12 +9606,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>53</v>
@@ -9681,12 +9681,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="93" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>30</v>
@@ -9758,15 +9758,15 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="94" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>172</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>54</v>
@@ -9835,12 +9835,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>30</v>
@@ -9912,15 +9912,15 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="96" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>175</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>82</v>
@@ -9989,12 +9989,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="97" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>30</v>
@@ -10066,12 +10066,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="98" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>30</v>
@@ -10143,12 +10143,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="99" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>30</v>
@@ -10220,12 +10220,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="100" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>30</v>
@@ -10297,12 +10297,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="101" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>30</v>
@@ -10374,12 +10374,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>30</v>
@@ -10451,12 +10451,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="103" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>30</v>
@@ -10528,18 +10528,18 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="104" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E104" s="3" t="s">
         <v>73</v>
@@ -10605,15 +10605,15 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="105" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>185</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>186</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>27</v>
@@ -10682,12 +10682,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="106" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>38</v>
@@ -10759,12 +10759,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="107" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>30</v>
@@ -10836,12 +10836,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="108" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C108" s="3" t="s">
         <v>118</v>
@@ -10913,12 +10913,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="109" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>76</v>
@@ -10990,15 +10990,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="110" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>191</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>27</v>
@@ -11067,15 +11067,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="111" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>193</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>194</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>54</v>
@@ -11144,12 +11144,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="112" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>53</v>
@@ -11221,21 +11221,21 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="113" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F113" s="3">
         <v>31</v>
@@ -11298,12 +11298,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="114" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>118</v>
@@ -11375,12 +11375,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="115" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>30</v>
@@ -11452,12 +11452,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="116" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>30</v>
@@ -11466,7 +11466,7 @@
         <v>27</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F116" s="3">
         <v>18</v>
@@ -11529,12 +11529,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="117" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>30</v>
@@ -11543,7 +11543,7 @@
         <v>57</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F117" s="3">
         <v>23</v>
@@ -11606,12 +11606,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="118" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>30</v>
@@ -11683,15 +11683,15 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="119" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>203</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>204</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>31</v>
@@ -11750,12 +11750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>30</v>
@@ -11827,12 +11827,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="121" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>30</v>
@@ -11904,21 +11904,21 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>208</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F122" s="3">
         <v>28</v>
@@ -11981,12 +11981,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="123" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>30</v>
@@ -12058,12 +12058,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="124" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>30</v>
@@ -12072,7 +12072,7 @@
         <v>82</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F124" s="3">
         <v>19</v>
@@ -12135,12 +12135,12 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="125" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>40</v>
@@ -12212,12 +12212,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="126" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>38</v>
@@ -12289,12 +12289,12 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>78</v>
@@ -12303,7 +12303,7 @@
         <v>54</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F127" s="3">
         <v>30</v>
@@ -12366,12 +12366,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="128" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>30</v>
@@ -12441,15 +12441,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>102</v>
@@ -12518,12 +12518,12 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="130" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>85</v>
@@ -12595,12 +12595,12 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="131" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>81</v>
@@ -12672,12 +12672,12 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="132" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>30</v>
@@ -12749,12 +12749,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="133" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>66</v>
@@ -12826,15 +12826,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="134" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>221</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>222</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>31</v>
@@ -12893,15 +12893,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>82</v>
@@ -12970,12 +12970,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="136" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>30</v>
@@ -13047,12 +13047,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="137" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>30</v>
@@ -13124,21 +13124,21 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="138" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F138" s="3">
         <v>26</v>
@@ -13201,12 +13201,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="139" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>69</v>
@@ -13276,12 +13276,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="140" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>30</v>
@@ -13290,7 +13290,7 @@
         <v>27</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F140" s="3">
         <v>24</v>
@@ -13353,15 +13353,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="141" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>54</v>
@@ -13430,12 +13430,12 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="142" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>30</v>
@@ -13444,7 +13444,7 @@
         <v>57</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F142" s="3">
         <v>20</v>
@@ -13507,12 +13507,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="143" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>30</v>
@@ -13521,7 +13521,7 @@
         <v>82</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F143" s="3">
         <v>28</v>
@@ -13584,12 +13584,12 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="144" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>30</v>
@@ -13661,12 +13661,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="145" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>81</v>
@@ -13738,12 +13738,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="146" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>30</v>
@@ -13815,12 +13815,12 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="147" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>53</v>
@@ -13892,12 +13892,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="148" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>96</v>
@@ -13969,12 +13969,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="149" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>30</v>
@@ -14046,12 +14046,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="150" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>118</v>
@@ -14123,15 +14123,15 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="151" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>239</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>240</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>82</v>
@@ -14200,12 +14200,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="152" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>30</v>
@@ -14277,12 +14277,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="153" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>30</v>
@@ -14354,12 +14354,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="154" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>30</v>
@@ -14429,12 +14429,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>30</v>
@@ -14506,12 +14506,12 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="156" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>69</v>
@@ -14520,7 +14520,7 @@
         <v>27</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F156" s="3">
         <v>33</v>
@@ -14581,15 +14581,15 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="157" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C157" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>31</v>
@@ -14648,12 +14648,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>30</v>
@@ -14725,15 +14725,15 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="159" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>82</v>
@@ -14802,21 +14802,21 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="160" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>102</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F160" s="3">
         <v>24</v>
@@ -14879,12 +14879,12 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="161" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>30</v>
@@ -14956,12 +14956,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="162" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>30</v>
@@ -15031,12 +15031,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="163" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>30</v>
@@ -15108,12 +15108,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>81</v>
@@ -15185,12 +15185,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="165" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>30</v>
@@ -15262,12 +15262,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>30</v>
@@ -15337,12 +15337,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>30</v>
@@ -15351,7 +15351,7 @@
         <v>27</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F167" s="3">
         <v>22</v>
@@ -15414,15 +15414,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="168" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>260</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>27</v>
@@ -15489,15 +15489,15 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="169" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>90</v>
@@ -15566,12 +15566,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>30</v>
@@ -15643,12 +15643,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="171" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>30</v>
@@ -15720,15 +15720,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="172" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>27</v>
@@ -15797,12 +15797,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="173" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>78</v>
@@ -15874,12 +15874,12 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="174" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>30</v>
@@ -15951,21 +15951,21 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="175" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F175" s="3">
         <v>28</v>
@@ -16028,15 +16028,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="176" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>27</v>
@@ -16105,12 +16105,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="177" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>69</v>
@@ -16182,15 +16182,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="178" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>271</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>272</v>
       </c>
       <c r="D178" s="3" t="s">
         <v>57</v>
@@ -16259,12 +16259,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="179" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>30</v>
@@ -16273,7 +16273,7 @@
         <v>102</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F179" s="3">
         <v>31</v>
@@ -16336,12 +16336,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="180" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>38</v>
@@ -16413,12 +16413,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="181" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>30</v>
@@ -16490,12 +16490,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="182" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>112</v>
@@ -16567,21 +16567,21 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="183" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D183" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F183" s="3">
         <v>21</v>
@@ -16644,12 +16644,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="184" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>30</v>
@@ -16658,7 +16658,7 @@
         <v>31</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F184" s="3">
         <v>25</v>
@@ -16711,12 +16711,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>30</v>
@@ -16778,15 +16778,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D186" s="3" t="s">
         <v>54</v>
@@ -16855,21 +16855,21 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="187" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>281</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>282</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F187" s="3">
         <v>25</v>
@@ -16930,12 +16930,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="188" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>30</v>
@@ -17007,12 +17007,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="189" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>38</v>
@@ -17084,12 +17084,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="190" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>30</v>
@@ -17161,18 +17161,18 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="191" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>59</v>
@@ -17238,12 +17238,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="192" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>26</v>
@@ -17315,15 +17315,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="193" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D193" s="3" t="s">
         <v>57</v>
@@ -17392,12 +17392,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="194" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>66</v>
@@ -17469,21 +17469,21 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="195" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D195" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F195" s="3">
         <v>25</v>
@@ -17546,12 +17546,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="196" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>30</v>
@@ -17623,15 +17623,15 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="197" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>54</v>
@@ -17700,15 +17700,15 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="198" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D198" s="3" t="s">
         <v>90</v>
@@ -17777,12 +17777,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="199" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>53</v>
@@ -17852,12 +17852,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>30</v>
@@ -17929,12 +17929,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="201" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>30</v>
@@ -18006,12 +18006,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>30</v>
@@ -18083,18 +18083,18 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="203" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E203" s="3" t="s">
         <v>46</v>
@@ -18160,12 +18160,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="204" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>38</v>
@@ -18237,15 +18237,15 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="205" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D205" s="3" t="s">
         <v>82</v>
@@ -18314,12 +18314,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="206" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>30</v>
@@ -18391,12 +18391,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="207" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>30</v>
@@ -18468,12 +18468,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="208" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>114</v>
@@ -18545,12 +18545,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="209" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>30</v>
@@ -18622,12 +18622,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="210" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>30</v>
@@ -18699,12 +18699,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="211" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>30</v>
@@ -18774,15 +18774,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="212" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>27</v>
@@ -18851,12 +18851,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="213" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>114</v>
@@ -18926,12 +18926,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="214" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>50</v>
@@ -19003,21 +19003,21 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="215" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F215" s="3">
         <v>31</v>
@@ -19080,12 +19080,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="216" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>30</v>
@@ -19157,15 +19157,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="217" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>57</v>
@@ -19234,15 +19234,15 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="218" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>102</v>
@@ -19311,12 +19311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>30</v>
@@ -19388,21 +19388,21 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="220" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>69</v>
       </c>
       <c r="D220" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F220" s="3">
         <v>35</v>
@@ -19465,15 +19465,15 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="221" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>27</v>
@@ -19540,12 +19540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>50</v>
@@ -19554,7 +19554,7 @@
         <v>90</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F222" s="3">
         <v>26</v>
@@ -19617,12 +19617,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="223" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>114</v>
@@ -19694,12 +19694,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>30</v>
@@ -19771,12 +19771,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="225" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>38</v>
@@ -19848,12 +19848,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="226" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>38</v>
@@ -19925,12 +19925,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="227" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>30</v>
@@ -20002,12 +20002,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="228" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>30</v>
@@ -20079,12 +20079,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="229" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>30</v>
@@ -20156,12 +20156,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>69</v>
@@ -20233,21 +20233,21 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="231" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F231" s="3">
         <v>21</v>
@@ -20310,12 +20310,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="232" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>30</v>
@@ -20387,15 +20387,15 @@
         <v>-2.9</v>
       </c>
     </row>
-    <row r="233" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>82</v>
@@ -20464,21 +20464,21 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="234" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D234" s="3" t="s">
         <v>31</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F234" s="3">
         <v>40</v>
@@ -20531,12 +20531,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>112</v>
@@ -20598,12 +20598,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>114</v>
@@ -20675,15 +20675,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="237" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>82</v>
@@ -20752,18 +20752,18 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="238" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E238" s="3" t="s">
         <v>48</v>
@@ -20829,12 +20829,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="239" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>30</v>
@@ -20906,12 +20906,12 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="240" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>69</v>
@@ -20983,15 +20983,15 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="241" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>27</v>
@@ -21060,12 +21060,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="242" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>38</v>
@@ -21137,12 +21137,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="243" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>30</v>
@@ -21214,12 +21214,12 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="244" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>30</v>
@@ -21291,12 +21291,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="245" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>53</v>
@@ -21368,12 +21368,12 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="246" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>30</v>
@@ -21445,12 +21445,12 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="247" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>50</v>
@@ -21522,12 +21522,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="248" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>69</v>
@@ -21536,7 +21536,7 @@
         <v>102</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F248" s="3">
         <v>26</v>
@@ -21599,12 +21599,12 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="249" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>123</v>
@@ -21676,18 +21676,18 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="250" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D250" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E250" s="3" t="s">
         <v>64</v>
@@ -21753,12 +21753,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="251" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>69</v>
@@ -21828,12 +21828,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="252" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>30</v>
@@ -21842,7 +21842,7 @@
         <v>27</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F252" s="3">
         <v>32</v>
@@ -21905,12 +21905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>66</v>
@@ -21982,12 +21982,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="254" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>96</v>
@@ -22059,12 +22059,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="255" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>78</v>
@@ -22136,12 +22136,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>120</v>
@@ -22213,12 +22213,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="257" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>85</v>
@@ -22290,12 +22290,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="258" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>30</v>
@@ -22367,12 +22367,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="259" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>118</v>
@@ -22444,15 +22444,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="260" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>57</v>
@@ -22521,12 +22521,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="261" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>30</v>
@@ -22598,12 +22598,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="262" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>69</v>
@@ -22675,18 +22675,18 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="263" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D263" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E263" s="3" t="s">
         <v>41</v>
@@ -22752,15 +22752,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="264" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>57</v>
@@ -22829,12 +22829,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="265" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>66</v>
@@ -22906,18 +22906,18 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="266" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D266" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E266" s="3" t="s">
         <v>51</v>
@@ -22983,12 +22983,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>53</v>
@@ -23060,12 +23060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>69</v>
@@ -23137,12 +23137,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="269" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>30</v>
@@ -23214,15 +23214,15 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="270" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>373</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>374</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>82</v>
@@ -23291,12 +23291,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="271" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>30</v>
@@ -23366,12 +23366,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="272" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>30</v>
@@ -23443,12 +23443,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="273" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>30</v>
@@ -23520,15 +23520,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="274" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D274" s="3" t="s">
         <v>27</v>
@@ -23597,12 +23597,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="275" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>30</v>
@@ -23674,12 +23674,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="276" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>26</v>
@@ -23751,12 +23751,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="277" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>78</v>
@@ -23765,7 +23765,7 @@
         <v>57</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F277" s="3">
         <v>24</v>
@@ -23828,12 +23828,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="278" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>30</v>
@@ -23905,12 +23905,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="279" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>30</v>
@@ -23982,12 +23982,12 @@
         <v>-3.6</v>
       </c>
     </row>
-    <row r="280" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>106</v>
@@ -24059,12 +24059,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="281" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>50</v>
@@ -24136,12 +24136,12 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>30</v>
@@ -24213,12 +24213,12 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="283" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>118</v>
@@ -24290,12 +24290,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="284" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>81</v>
@@ -24367,12 +24367,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="285" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>30</v>
@@ -24444,12 +24444,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="286" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>30</v>
@@ -24521,12 +24521,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="287" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>66</v>
@@ -24598,15 +24598,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="288" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>82</v>
@@ -24675,12 +24675,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="289" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>50</v>
@@ -24752,12 +24752,12 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="290" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>30</v>
@@ -24819,12 +24819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>114</v>
@@ -24896,12 +24896,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="292" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>30</v>
@@ -24910,7 +24910,7 @@
         <v>102</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F292" s="3">
         <v>20</v>
@@ -24973,12 +24973,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="293" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>30</v>
@@ -24987,7 +24987,7 @@
         <v>102</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F293" s="3">
         <v>19</v>
@@ -25050,15 +25050,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="294" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>31</v>
@@ -25117,15 +25117,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>27</v>
@@ -25194,12 +25194,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="296" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>30</v>
@@ -25269,12 +25269,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="297" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>30</v>
@@ -25346,12 +25346,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="298" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>30</v>
@@ -25421,12 +25421,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="299" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>53</v>
@@ -25498,12 +25498,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="300" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>26</v>
@@ -25575,12 +25575,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="301" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>30</v>
@@ -25652,12 +25652,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="302" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>69</v>
@@ -25729,12 +25729,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="303" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>30</v>
@@ -25806,15 +25806,15 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="304" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>27</v>
@@ -25881,12 +25881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>30</v>
@@ -25895,7 +25895,7 @@
         <v>57</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F305" s="3">
         <v>23</v>
@@ -25958,12 +25958,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="306" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>26</v>
@@ -26035,15 +26035,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="307" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>57</v>
@@ -26112,12 +26112,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="308" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>30</v>
@@ -26189,15 +26189,15 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="309" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D309" s="3" t="s">
         <v>57</v>
@@ -26266,15 +26266,15 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="310" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D310" s="3" t="s">
         <v>27</v>
@@ -26343,12 +26343,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="311" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>118</v>
@@ -26420,12 +26420,12 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="312" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>30</v>
@@ -26497,12 +26497,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="313" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>69</v>
@@ -26574,12 +26574,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="314" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>69</v>
@@ -26651,12 +26651,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="315" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>30</v>
@@ -26665,7 +26665,7 @@
         <v>90</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F315" s="3">
         <v>25</v>
@@ -26728,15 +26728,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="316" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C316" s="3" t="s">
         <v>422</v>
-      </c>
-      <c r="C316" s="3" t="s">
-        <v>423</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>57</v>
@@ -26803,12 +26803,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="317" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>30</v>
@@ -26870,15 +26870,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D318" s="3" t="s">
         <v>57</v>
@@ -26947,15 +26947,15 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="319" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D319" s="3" t="s">
         <v>27</v>
@@ -27024,12 +27024,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="320" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>30</v>
@@ -27101,12 +27101,12 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="321" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>30</v>
@@ -27178,12 +27178,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="322" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>26</v>
@@ -27253,21 +27253,21 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="323" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D323" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E323" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F323" s="3">
         <v>27</v>
@@ -27330,15 +27330,15 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="324" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C324" s="3" t="s">
         <v>430</v>
-      </c>
-      <c r="C324" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>54</v>
@@ -27407,12 +27407,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="325" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>30</v>
@@ -27474,12 +27474,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>26</v>
@@ -27551,18 +27551,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="327" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D327" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E327" s="3" t="s">
         <v>28</v>
@@ -27628,12 +27628,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="328" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>30</v>
@@ -27705,12 +27705,12 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="329" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>30</v>
@@ -27719,7 +27719,7 @@
         <v>27</v>
       </c>
       <c r="E329" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F329" s="3">
         <v>19</v>
@@ -27782,12 +27782,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="330" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>30</v>
@@ -27859,12 +27859,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="331" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>30</v>
@@ -27936,12 +27936,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="332" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>69</v>
@@ -28013,12 +28013,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="333" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>30</v>
@@ -28090,12 +28090,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="334" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>30</v>
@@ -28165,12 +28165,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="335" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>30</v>
@@ -28242,12 +28242,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="336" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>30</v>
@@ -28319,12 +28319,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="337" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>30</v>
@@ -28396,12 +28396,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="338" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>30</v>
@@ -28473,12 +28473,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="339" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>85</v>
@@ -28550,15 +28550,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="340" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C340" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="C340" s="3" t="s">
-        <v>448</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>54</v>
@@ -28627,12 +28627,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="341" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>118</v>
@@ -28641,7 +28641,7 @@
         <v>54</v>
       </c>
       <c r="E341" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F341" s="3">
         <v>29</v>
@@ -28704,12 +28704,12 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="342" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>66</v>
@@ -28718,7 +28718,7 @@
         <v>27</v>
       </c>
       <c r="E342" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F342" s="3">
         <v>32</v>
@@ -28781,15 +28781,15 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="343" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>82</v>
@@ -28858,15 +28858,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>82</v>
@@ -28935,12 +28935,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="345" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>30</v>
@@ -29012,12 +29012,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="346" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>69</v>
@@ -29089,12 +29089,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="347" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>53</v>
@@ -29164,12 +29164,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>66</v>
@@ -29239,15 +29239,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="349" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C349" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="C349" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>82</v>
@@ -29316,12 +29316,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>30</v>
@@ -29393,15 +29393,15 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="351" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D351" s="3" t="s">
         <v>82</v>
@@ -29470,12 +29470,12 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="352" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>38</v>
@@ -29547,15 +29547,15 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="353" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>57</v>
@@ -29624,12 +29624,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="354" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>30</v>
@@ -29701,12 +29701,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>38</v>
@@ -29776,15 +29776,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="356" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C356" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="C356" s="3" t="s">
-        <v>465</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>27</v>
@@ -29843,12 +29843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>50</v>
@@ -29920,12 +29920,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="358" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>69</v>
@@ -29997,12 +29997,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="359" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>30</v>
@@ -30074,15 +30074,15 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="360" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C360" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="C360" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>27</v>
@@ -30149,15 +30149,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="361" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>31</v>
@@ -30216,12 +30216,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>112</v>
@@ -30293,12 +30293,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="363" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>30</v>
@@ -30368,12 +30368,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="364" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>30</v>
@@ -30382,7 +30382,7 @@
         <v>27</v>
       </c>
       <c r="E364" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F364" s="3">
         <v>19</v>
@@ -30435,12 +30435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>30</v>
@@ -30512,12 +30512,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="366" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>50</v>
@@ -30589,12 +30589,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="367" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>30</v>
@@ -30603,7 +30603,7 @@
         <v>31</v>
       </c>
       <c r="E367" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F367" s="3">
         <v>35</v>
@@ -30656,12 +30656,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>96</v>
@@ -30670,7 +30670,7 @@
         <v>82</v>
       </c>
       <c r="E368" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F368" s="3">
         <v>22</v>
@@ -30733,12 +30733,12 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="369" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>30</v>
@@ -30810,15 +30810,15 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="370" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D370" s="3" t="s">
         <v>102</v>
@@ -30885,12 +30885,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="371" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>30</v>
@@ -30962,12 +30962,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="372" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>66</v>
@@ -31039,12 +31039,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="373" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>30</v>
@@ -31116,12 +31116,12 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="374" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>114</v>
@@ -31193,12 +31193,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="375" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>30</v>
@@ -31270,15 +31270,15 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="376" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>82</v>
@@ -31347,12 +31347,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="377" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>53</v>
@@ -31414,12 +31414,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>96</v>
@@ -31491,15 +31491,15 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="379" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D379" s="3" t="s">
         <v>27</v>
@@ -31568,21 +31568,21 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="380" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C380" s="3" t="s">
         <v>490</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>491</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>82</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F380" s="3">
         <v>30</v>
@@ -31645,15 +31645,15 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="381" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>27</v>
@@ -31722,15 +31722,15 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="382" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>54</v>
@@ -31799,12 +31799,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="383" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>30</v>
@@ -31876,15 +31876,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>27</v>
@@ -31951,12 +31951,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="385" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>26</v>
@@ -32026,12 +32026,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>30</v>
@@ -32093,12 +32093,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>30</v>
@@ -32170,12 +32170,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="388" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>69</v>
@@ -32245,12 +32245,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="389" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>69</v>
@@ -32322,12 +32322,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="390" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>38</v>
@@ -32397,12 +32397,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="391" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>38</v>
@@ -32474,12 +32474,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="392" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>38</v>
@@ -32541,12 +32541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>30</v>
@@ -32618,12 +32618,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="394" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>30</v>
@@ -32695,15 +32695,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="395" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D395" s="3" t="s">
         <v>27</v>
@@ -32770,12 +32770,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="396" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>30</v>
@@ -32845,12 +32845,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="397" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>30</v>
@@ -32922,15 +32922,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="398" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>82</v>
@@ -32999,15 +32999,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C399" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="C399" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>54</v>
@@ -33076,15 +33076,15 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="400" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>57</v>
@@ -33153,12 +33153,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="401" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>30</v>
@@ -33220,12 +33220,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>38</v>
@@ -33295,15 +33295,15 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="403" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>54</v>
@@ -33372,12 +33372,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>38</v>
@@ -33449,12 +33449,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="405" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>109</v>
@@ -33516,12 +33516,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>118</v>
@@ -33591,12 +33591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>30</v>
@@ -33668,12 +33668,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="408" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>30</v>
@@ -33745,12 +33745,12 @@
         <v>-1.2</v>
       </c>
     </row>
-    <row r="409" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>30</v>
@@ -33822,15 +33822,15 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="410" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>90</v>
@@ -33897,12 +33897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>30</v>
@@ -33974,12 +33974,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="412" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>114</v>
@@ -34051,12 +34051,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="413" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>50</v>
@@ -34126,12 +34126,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="414" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>78</v>
@@ -34203,15 +34203,15 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="415" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C415" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="C415" s="3" t="s">
-        <v>528</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>102</v>
@@ -34280,15 +34280,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="416" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D416" s="3" t="s">
         <v>82</v>
@@ -34357,12 +34357,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="417" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>30</v>
@@ -34434,15 +34434,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="418" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C418" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="C418" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>27</v>
@@ -34501,12 +34501,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>30</v>
@@ -34568,18 +34568,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D420" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E420" s="3" t="s">
         <v>28</v>
@@ -34643,12 +34643,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="421" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>118</v>
@@ -34657,7 +34657,7 @@
         <v>54</v>
       </c>
       <c r="E421" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F421" s="3">
         <v>24</v>
@@ -34720,12 +34720,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="422" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>30</v>
@@ -34797,12 +34797,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="423" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>30</v>
@@ -34864,12 +34864,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>114</v>
@@ -34939,12 +34939,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="425" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>30</v>
@@ -35016,12 +35016,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="426" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>81</v>
@@ -35093,18 +35093,18 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="427" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>96</v>
       </c>
       <c r="D427" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E427" s="3" t="s">
         <v>46</v>
@@ -35170,15 +35170,15 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="428" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>90</v>
@@ -35247,12 +35247,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="429" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>69</v>
@@ -35322,12 +35322,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="430" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>38</v>
@@ -35397,15 +35397,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D431" s="3" t="s">
         <v>82</v>
@@ -35474,12 +35474,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="432" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>30</v>
@@ -35541,12 +35541,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>30</v>
@@ -35608,12 +35608,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>30</v>
@@ -35685,12 +35685,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="435" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>30</v>
@@ -35752,15 +35752,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D436" s="3" t="s">
         <v>82</v>
@@ -35829,12 +35829,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="437" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>66</v>
@@ -35896,12 +35896,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>109</v>
@@ -35973,12 +35973,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="439" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>114</v>
@@ -36050,12 +36050,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="440" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>30</v>
@@ -36127,15 +36127,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="441" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D441" s="3" t="s">
         <v>54</v>
@@ -36202,15 +36202,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D442" s="3" t="s">
         <v>57</v>
@@ -36277,12 +36277,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="443" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>38</v>
@@ -36344,12 +36344,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>30</v>
@@ -36419,12 +36419,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>38</v>
@@ -36494,12 +36494,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>30</v>
@@ -36561,12 +36561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>30</v>
@@ -36638,12 +36638,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="448" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>30</v>
@@ -36713,12 +36713,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="449" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>30</v>
@@ -36790,12 +36790,12 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="450" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>30</v>
@@ -36865,15 +36865,15 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="451" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>54</v>
@@ -36942,12 +36942,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="452" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>30</v>
@@ -37019,12 +37019,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="453" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>30</v>
@@ -37096,18 +37096,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D454" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E454" s="3" t="s">
         <v>43</v>
@@ -37173,12 +37173,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="455" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>30</v>
@@ -37240,12 +37240,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>81</v>
@@ -37307,12 +37307,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>30</v>
@@ -37321,7 +37321,7 @@
         <v>27</v>
       </c>
       <c r="E457" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F457" s="3">
         <v>17</v>
@@ -37382,12 +37382,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="458" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>30</v>
@@ -37449,12 +37449,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>30</v>
@@ -37463,7 +37463,7 @@
         <v>57</v>
       </c>
       <c r="E459" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F459" s="3">
         <v>19</v>
@@ -37526,18 +37526,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D460" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E460" s="3" t="s">
         <v>67</v>
@@ -37601,12 +37601,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="461" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>30</v>
@@ -37678,12 +37678,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>30</v>
@@ -37745,12 +37745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>81</v>
@@ -37822,12 +37822,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="464" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>30</v>
@@ -37836,7 +37836,7 @@
         <v>57</v>
       </c>
       <c r="E464" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F464" s="3">
         <v>33</v>
@@ -37889,12 +37889,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>30</v>
@@ -37964,12 +37964,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="466" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>30</v>
@@ -38031,12 +38031,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>30</v>
@@ -38106,15 +38106,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="468" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C468" s="3" t="s">
         <v>578</v>
-      </c>
-      <c r="C468" s="3" t="s">
-        <v>579</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>82</v>
@@ -38181,12 +38181,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="469" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>38</v>
@@ -38256,12 +38256,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="470" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>38</v>
@@ -38333,15 +38333,15 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="471" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D471" s="3" t="s">
         <v>27</v>
@@ -38400,12 +38400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>30</v>
@@ -38477,15 +38477,15 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="473" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C473" s="3" t="s">
         <v>584</v>
-      </c>
-      <c r="C473" s="3" t="s">
-        <v>585</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>27</v>
@@ -38544,12 +38544,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>30</v>
@@ -38621,12 +38621,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="475" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>30</v>
@@ -38688,12 +38688,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>30</v>
@@ -38755,15 +38755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>57</v>
@@ -38822,18 +38822,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D478" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E478" s="3" t="s">
         <v>110</v>
@@ -38897,12 +38897,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="479" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>30</v>
@@ -38911,7 +38911,7 @@
         <v>57</v>
       </c>
       <c r="E479" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F479" s="3">
         <v>28</v>
@@ -38972,12 +38972,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>30</v>
@@ -39049,15 +39049,15 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="481" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D481" s="3" t="s">
         <v>27</v>
@@ -39116,12 +39116,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>30</v>
@@ -39183,12 +39183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>30</v>
@@ -39250,12 +39250,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>30</v>
@@ -39325,12 +39325,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>53</v>
@@ -39392,15 +39392,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D486" s="3" t="s">
         <v>82</v>
@@ -39467,12 +39467,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>30</v>
@@ -39542,12 +39542,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="488" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>96</v>
@@ -39609,15 +39609,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D489" s="3" t="s">
         <v>31</v>
@@ -39676,7 +39676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -39751,12 +39751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>112</v>
@@ -39818,12 +39818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>30</v>
@@ -39893,12 +39893,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="493" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>30</v>
@@ -39960,12 +39960,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>30</v>
@@ -40027,12 +40027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>30</v>
@@ -40094,12 +40094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>30</v>
@@ -40161,12 +40161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>40</v>
@@ -40236,12 +40236,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>30</v>
@@ -40303,12 +40303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>30</v>
@@ -40370,15 +40370,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:25" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>27</v>
@@ -40445,7 +40445,6 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="501" spans="1:25" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/france/19/france_shooting.xlsx
+++ b/data/league_data/france/19/france_shooting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3924697-39DA-BD46-9555-320E297D20A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EB3DCF-310A-8647-8175-D820AE20D678}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,9 +883,6 @@
     <t>Fouad Chafik</t>
   </si>
   <si>
-    <t>Manu García</t>
-  </si>
-  <si>
     <t>Rony Lopes</t>
   </si>
   <si>
@@ -1276,9 +1273,6 @@
     <t>Jean-Victor Makengo</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Thiago Maia</t>
   </si>
   <si>
@@ -1853,6 +1847,12 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
+  </si>
+  <si>
+    <t>Manu García Alonso</t>
   </si>
 </sst>
 </file>
@@ -2719,8 +2719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7090,7 +7090,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>69</v>
@@ -17320,7 +17320,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>287</v>
+        <v>610</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>264</v>
@@ -17397,7 +17397,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>66</v>
@@ -17474,7 +17474,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>264</v>
@@ -17551,7 +17551,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>30</v>
@@ -17628,10 +17628,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>291</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>292</v>
       </c>
       <c r="D197" s="3" t="s">
         <v>54</v>
@@ -17705,7 +17705,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>250</v>
@@ -17782,7 +17782,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>53</v>
@@ -17857,7 +17857,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>30</v>
@@ -17934,7 +17934,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>30</v>
@@ -18011,7 +18011,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>30</v>
@@ -18088,7 +18088,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>30</v>
@@ -18165,7 +18165,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>38</v>
@@ -18242,7 +18242,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>271</v>
@@ -18319,7 +18319,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>30</v>
@@ -18396,7 +18396,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>30</v>
@@ -18473,7 +18473,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>114</v>
@@ -18550,7 +18550,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>30</v>
@@ -18627,7 +18627,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>30</v>
@@ -18704,7 +18704,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>30</v>
@@ -18779,10 +18779,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C212" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C212" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D212" s="3" t="s">
         <v>27</v>
@@ -18856,7 +18856,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>114</v>
@@ -18931,7 +18931,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>50</v>
@@ -19008,10 +19008,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C215" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="D215" s="3" t="s">
         <v>82</v>
@@ -19085,7 +19085,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>30</v>
@@ -19162,10 +19162,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C217" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C217" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="D217" s="3" t="s">
         <v>57</v>
@@ -19239,10 +19239,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D218" s="3" t="s">
         <v>102</v>
@@ -19316,7 +19316,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>30</v>
@@ -19393,7 +19393,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>69</v>
@@ -19470,7 +19470,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>207</v>
@@ -19545,7 +19545,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>50</v>
@@ -19622,7 +19622,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>114</v>
@@ -19699,7 +19699,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>30</v>
@@ -19776,7 +19776,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>38</v>
@@ -19853,7 +19853,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>38</v>
@@ -19930,7 +19930,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>30</v>
@@ -20007,7 +20007,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>30</v>
@@ -20084,7 +20084,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>30</v>
@@ -20161,7 +20161,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>69</v>
@@ -20238,10 +20238,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C231" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C231" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D231" s="3" t="s">
         <v>27</v>
@@ -20315,7 +20315,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>30</v>
@@ -20392,10 +20392,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C233" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="C233" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="D233" s="3" t="s">
         <v>82</v>
@@ -20469,7 +20469,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>281</v>
@@ -20536,7 +20536,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>112</v>
@@ -20603,7 +20603,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>114</v>
@@ -20680,10 +20680,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C237" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="C237" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="D237" s="3" t="s">
         <v>82</v>
@@ -20757,7 +20757,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>30</v>
@@ -20834,7 +20834,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>30</v>
@@ -20911,7 +20911,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>69</v>
@@ -20988,10 +20988,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C241" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="C241" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="D241" s="3" t="s">
         <v>27</v>
@@ -21065,7 +21065,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>38</v>
@@ -21142,7 +21142,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>30</v>
@@ -21219,7 +21219,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>30</v>
@@ -21296,7 +21296,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>53</v>
@@ -21373,7 +21373,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>30</v>
@@ -21450,7 +21450,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>50</v>
@@ -21527,7 +21527,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>69</v>
@@ -21604,7 +21604,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>123</v>
@@ -21681,7 +21681,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>30</v>
@@ -21758,7 +21758,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>69</v>
@@ -21833,7 +21833,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>30</v>
@@ -21910,7 +21910,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>66</v>
@@ -21987,7 +21987,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>96</v>
@@ -22064,7 +22064,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>78</v>
@@ -22141,7 +22141,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>120</v>
@@ -22218,7 +22218,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>85</v>
@@ -22295,7 +22295,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>30</v>
@@ -22372,7 +22372,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>118</v>
@@ -22449,10 +22449,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D260" s="3" t="s">
         <v>57</v>
@@ -22526,7 +22526,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>30</v>
@@ -22603,7 +22603,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>69</v>
@@ -22680,7 +22680,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>53</v>
@@ -22757,10 +22757,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C264" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="C264" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="D264" s="3" t="s">
         <v>57</v>
@@ -22834,7 +22834,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>66</v>
@@ -22911,7 +22911,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>30</v>
@@ -22988,7 +22988,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>53</v>
@@ -23065,7 +23065,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>69</v>
@@ -23142,7 +23142,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>30</v>
@@ -23219,10 +23219,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C270" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="C270" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>82</v>
@@ -23296,7 +23296,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>30</v>
@@ -23371,7 +23371,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>30</v>
@@ -23448,7 +23448,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>30</v>
@@ -23525,7 +23525,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>148</v>
@@ -23602,7 +23602,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>30</v>
@@ -23679,7 +23679,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>26</v>
@@ -23756,7 +23756,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>78</v>
@@ -23833,7 +23833,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>30</v>
@@ -23910,7 +23910,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>30</v>
@@ -23987,7 +23987,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>106</v>
@@ -24064,7 +24064,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>50</v>
@@ -24141,7 +24141,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>30</v>
@@ -24218,7 +24218,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>118</v>
@@ -24295,7 +24295,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>81</v>
@@ -24372,7 +24372,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>30</v>
@@ -24449,7 +24449,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>30</v>
@@ -24526,7 +24526,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>66</v>
@@ -24603,10 +24603,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C288" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="C288" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>82</v>
@@ -24680,7 +24680,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>50</v>
@@ -24757,7 +24757,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>30</v>
@@ -24824,7 +24824,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>114</v>
@@ -24901,7 +24901,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>30</v>
@@ -24978,7 +24978,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>30</v>
@@ -25055,10 +25055,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D294" s="3" t="s">
         <v>31</v>
@@ -25122,7 +25122,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>259</v>
@@ -25199,7 +25199,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>30</v>
@@ -25274,7 +25274,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>30</v>
@@ -25351,7 +25351,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>30</v>
@@ -25426,7 +25426,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>53</v>
@@ -25503,7 +25503,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>26</v>
@@ -25580,7 +25580,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>30</v>
@@ -25657,7 +25657,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>69</v>
@@ -25734,7 +25734,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>30</v>
@@ -25811,10 +25811,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C304" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="C304" s="3" t="s">
-        <v>409</v>
       </c>
       <c r="D304" s="3" t="s">
         <v>27</v>
@@ -25886,7 +25886,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>30</v>
@@ -25963,7 +25963,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>26</v>
@@ -26040,10 +26040,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D307" s="3" t="s">
         <v>57</v>
@@ -26117,7 +26117,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>30</v>
@@ -26194,7 +26194,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>185</v>
@@ -26271,7 +26271,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>148</v>
@@ -26348,7 +26348,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>118</v>
@@ -26425,7 +26425,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>30</v>
@@ -26502,7 +26502,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>418</v>
+        <v>609</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>69</v>
@@ -26579,7 +26579,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>69</v>
@@ -26656,7 +26656,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>30</v>
@@ -26733,10 +26733,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>57</v>
@@ -26808,7 +26808,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>30</v>
@@ -26875,7 +26875,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>264</v>
@@ -26952,7 +26952,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>145</v>
@@ -27029,7 +27029,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>30</v>
@@ -27106,7 +27106,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>30</v>
@@ -27183,7 +27183,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>26</v>
@@ -27258,7 +27258,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>281</v>
@@ -27335,10 +27335,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D324" s="3" t="s">
         <v>54</v>
@@ -27412,7 +27412,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>30</v>
@@ -27479,7 +27479,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>26</v>
@@ -27556,7 +27556,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>53</v>
@@ -27633,7 +27633,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C328" s="3" t="s">
         <v>30</v>
@@ -27710,7 +27710,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>30</v>
@@ -27787,7 +27787,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>30</v>
@@ -27864,7 +27864,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>30</v>
@@ -27941,7 +27941,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>69</v>
@@ -28018,7 +28018,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>30</v>
@@ -28095,7 +28095,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>30</v>
@@ -28170,7 +28170,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>30</v>
@@ -28247,7 +28247,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>30</v>
@@ -28324,7 +28324,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>30</v>
@@ -28401,7 +28401,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>30</v>
@@ -28478,7 +28478,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>85</v>
@@ -28555,10 +28555,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D340" s="3" t="s">
         <v>54</v>
@@ -28632,7 +28632,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>118</v>
@@ -28709,7 +28709,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>66</v>
@@ -28786,10 +28786,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>82</v>
@@ -28863,10 +28863,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>82</v>
@@ -28940,7 +28940,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>30</v>
@@ -29017,7 +29017,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C346" s="3" t="s">
         <v>69</v>
@@ -29094,7 +29094,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>53</v>
@@ -29169,7 +29169,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>66</v>
@@ -29244,10 +29244,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D349" s="3" t="s">
         <v>82</v>
@@ -29321,7 +29321,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>30</v>
@@ -29398,7 +29398,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>281</v>
@@ -29475,7 +29475,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>38</v>
@@ -29552,7 +29552,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>163</v>
@@ -29629,7 +29629,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>30</v>
@@ -29706,7 +29706,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>38</v>
@@ -29781,10 +29781,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D356" s="3" t="s">
         <v>27</v>
@@ -29848,7 +29848,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>50</v>
@@ -29925,7 +29925,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>69</v>
@@ -30002,7 +30002,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>30</v>
@@ -30079,10 +30079,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D360" s="3" t="s">
         <v>27</v>
@@ -30154,10 +30154,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D361" s="3" t="s">
         <v>31</v>
@@ -30221,7 +30221,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>112</v>
@@ -30298,7 +30298,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>30</v>
@@ -30373,7 +30373,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>30</v>
@@ -30440,7 +30440,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>30</v>
@@ -30517,7 +30517,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>50</v>
@@ -30594,7 +30594,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>30</v>
@@ -30661,7 +30661,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>96</v>
@@ -30738,7 +30738,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>30</v>
@@ -30815,7 +30815,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>171</v>
@@ -30890,7 +30890,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>30</v>
@@ -30967,7 +30967,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>66</v>
@@ -31044,7 +31044,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C373" s="3" t="s">
         <v>30</v>
@@ -31121,7 +31121,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>114</v>
@@ -31198,7 +31198,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C375" s="3" t="s">
         <v>30</v>
@@ -31275,10 +31275,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D376" s="3" t="s">
         <v>82</v>
@@ -31352,7 +31352,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>53</v>
@@ -31419,7 +31419,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>96</v>
@@ -31496,7 +31496,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>281</v>
@@ -31573,10 +31573,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>82</v>
@@ -31650,10 +31650,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>27</v>
@@ -31727,10 +31727,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>54</v>
@@ -31804,7 +31804,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>30</v>
@@ -31881,10 +31881,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>27</v>
@@ -31956,7 +31956,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>26</v>
@@ -32031,7 +32031,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>30</v>
@@ -32098,7 +32098,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>30</v>
@@ -32175,7 +32175,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>69</v>
@@ -32250,7 +32250,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>69</v>
@@ -32327,7 +32327,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>38</v>
@@ -32402,7 +32402,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>38</v>
@@ -32479,7 +32479,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>38</v>
@@ -32546,7 +32546,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>30</v>
@@ -32623,7 +32623,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>30</v>
@@ -32700,7 +32700,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>281</v>
@@ -32775,7 +32775,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>30</v>
@@ -32850,7 +32850,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>30</v>
@@ -32927,10 +32927,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>82</v>
@@ -33004,10 +33004,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D399" s="3" t="s">
         <v>54</v>
@@ -33081,10 +33081,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>57</v>
@@ -33158,7 +33158,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>30</v>
@@ -33225,7 +33225,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>38</v>
@@ -33300,7 +33300,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>171</v>
@@ -33377,7 +33377,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>38</v>
@@ -33454,7 +33454,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>109</v>
@@ -33521,7 +33521,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C406" s="3" t="s">
         <v>118</v>
@@ -33596,7 +33596,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>30</v>
@@ -33673,7 +33673,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>30</v>
@@ -33750,7 +33750,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>30</v>
@@ -33827,10 +33827,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D410" s="3" t="s">
         <v>90</v>
@@ -33902,7 +33902,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>30</v>
@@ -33979,7 +33979,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>114</v>
@@ -34056,7 +34056,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>50</v>
@@ -34131,7 +34131,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>78</v>
@@ -34208,10 +34208,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D415" s="3" t="s">
         <v>102</v>
@@ -34285,7 +34285,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>264</v>
@@ -34362,7 +34362,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>30</v>
@@ -34439,10 +34439,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>27</v>
@@ -34506,7 +34506,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>30</v>
@@ -34573,7 +34573,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>40</v>
@@ -34648,7 +34648,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>118</v>
@@ -34725,7 +34725,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>30</v>
@@ -34802,7 +34802,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>30</v>
@@ -34869,7 +34869,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>114</v>
@@ -34944,7 +34944,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>30</v>
@@ -35021,7 +35021,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C426" s="3" t="s">
         <v>81</v>
@@ -35098,7 +35098,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>96</v>
@@ -35175,10 +35175,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D428" s="3" t="s">
         <v>90</v>
@@ -35252,7 +35252,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>69</v>
@@ -35327,7 +35327,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>38</v>
@@ -35402,7 +35402,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>264</v>
@@ -35479,7 +35479,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>30</v>
@@ -35546,7 +35546,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>30</v>
@@ -35613,7 +35613,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>30</v>
@@ -35690,7 +35690,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>30</v>
@@ -35757,7 +35757,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>271</v>
@@ -35834,7 +35834,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>66</v>
@@ -35901,7 +35901,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>109</v>
@@ -35978,7 +35978,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>114</v>
@@ -36055,7 +36055,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>30</v>
@@ -36132,7 +36132,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>171</v>
@@ -36207,7 +36207,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C442" s="3" t="s">
         <v>271</v>
@@ -36282,7 +36282,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>38</v>
@@ -36349,7 +36349,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>30</v>
@@ -36424,7 +36424,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>38</v>
@@ -36499,7 +36499,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C446" s="3" t="s">
         <v>30</v>
@@ -36566,7 +36566,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>30</v>
@@ -36643,7 +36643,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>30</v>
@@ -36718,7 +36718,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>30</v>
@@ -36795,7 +36795,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>30</v>
@@ -36870,10 +36870,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D451" s="3" t="s">
         <v>54</v>
@@ -36947,7 +36947,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>30</v>
@@ -37024,7 +37024,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>30</v>
@@ -37101,7 +37101,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>30</v>
@@ -37178,7 +37178,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>30</v>
@@ -37245,7 +37245,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>81</v>
@@ -37312,7 +37312,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>30</v>
@@ -37387,7 +37387,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>30</v>
@@ -37454,7 +37454,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>30</v>
@@ -37531,7 +37531,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>38</v>
@@ -37606,7 +37606,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>30</v>
@@ -37683,7 +37683,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>30</v>
@@ -37750,7 +37750,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>81</v>
@@ -37827,7 +37827,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>30</v>
@@ -37894,7 +37894,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>30</v>
@@ -37969,7 +37969,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>30</v>
@@ -38036,7 +38036,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>30</v>
@@ -38111,10 +38111,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D468" s="3" t="s">
         <v>82</v>
@@ -38186,7 +38186,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>38</v>
@@ -38261,7 +38261,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>38</v>
@@ -38338,7 +38338,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>137</v>
@@ -38405,7 +38405,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>30</v>
@@ -38482,10 +38482,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D473" s="3" t="s">
         <v>27</v>
@@ -38549,7 +38549,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>30</v>
@@ -38626,7 +38626,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>30</v>
@@ -38760,10 +38760,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D477" s="3" t="s">
         <v>57</v>
@@ -38827,7 +38827,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>30</v>
@@ -38902,7 +38902,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>30</v>
@@ -38977,7 +38977,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>30</v>
@@ -39054,7 +39054,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>191</v>
@@ -39121,7 +39121,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>30</v>
@@ -39188,7 +39188,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>30</v>
@@ -39255,7 +39255,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>30</v>
@@ -39330,7 +39330,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>53</v>
@@ -39397,7 +39397,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C486" s="3" t="s">
         <v>271</v>
@@ -39472,7 +39472,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C487" s="3" t="s">
         <v>30</v>
@@ -39547,7 +39547,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C488" s="3" t="s">
         <v>96</v>
@@ -39614,7 +39614,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C489" s="3" t="s">
         <v>207</v>
@@ -39756,7 +39756,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C491" s="3" t="s">
         <v>112</v>
@@ -39823,7 +39823,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C492" s="3" t="s">
         <v>30</v>
@@ -39898,7 +39898,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C493" s="3" t="s">
         <v>30</v>
@@ -39965,7 +39965,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C494" s="3" t="s">
         <v>30</v>
@@ -40032,7 +40032,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C495" s="3" t="s">
         <v>30</v>
@@ -40099,7 +40099,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C496" s="3" t="s">
         <v>30</v>
@@ -40166,7 +40166,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C497" s="3" t="s">
         <v>40</v>
@@ -40241,7 +40241,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C498" s="3" t="s">
         <v>30</v>
@@ -40308,7 +40308,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C499" s="3" t="s">
         <v>30</v>
@@ -40375,10 +40375,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D500" s="3" t="s">
         <v>27</v>
